--- a/Person/张梦如/用户故事.xlsx
+++ b/Person/张梦如/用户故事.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2019.9-2019.12\软件工程\hope-of-the-whole-village\Person\张梦如\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FCA86F-AD3A-403F-BF50-07CDC3D9F708}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3943459-434A-4FE0-8D00-CC749233E436}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -187,11 +187,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="180" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="186" formatCode="&quot;€&quot;\ #,##0.00;[Red]&quot;€&quot;\ #,##0.00"/>
-    <numFmt numFmtId="187" formatCode="d/mm/yyyy;@"/>
-    <numFmt numFmtId="193" formatCode="0.00;\-0.00;;@\ "/>
-    <numFmt numFmtId="197" formatCode="0;\-0;;@\ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="&quot;€&quot;\ #,##0.00;[Red]&quot;€&quot;\ #,##0.00"/>
+    <numFmt numFmtId="178" formatCode="d/mm/yyyy;@"/>
+    <numFmt numFmtId="179" formatCode="0.00;\-0.00;;@\ "/>
+    <numFmt numFmtId="180" formatCode="0;\-0;;@\ "/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -531,19 +531,19 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="1" fillId="5" borderId="13">
+    <xf numFmtId="177" fontId="1" fillId="5" borderId="13">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="13" applyNumberFormat="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="4" fillId="7" borderId="13" applyNumberFormat="0">
+    <xf numFmtId="178" fontId="4" fillId="7" borderId="13" applyNumberFormat="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -575,7 +575,7 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="193" fontId="6" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -606,7 +606,7 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="197" fontId="6" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -923,7 +923,7 @@
   <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1114,7 +1114,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="20">
         <v>1</v>
@@ -1157,7 +1157,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="20">
         <v>1</v>
@@ -1200,7 +1200,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="20">
         <v>1</v>
@@ -1243,7 +1243,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="20">
         <v>1</v>
@@ -1286,7 +1286,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="20">
         <v>1</v>
@@ -1329,7 +1329,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" s="20">
         <v>1</v>
@@ -1372,7 +1372,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11" s="20">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12" s="20">
         <v>1</v>
@@ -1456,7 +1456,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13" s="20">
         <v>1</v>
@@ -1517,5 +1517,6 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>